--- a/multi-factor/raw_data/src/trade_days_begin_end_of_month.xlsx
+++ b/multi-factor/raw_data/src/trade_days_begin_end_of_month.xlsx
@@ -443,12 +443,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>month_start</t>
+          <t>month_end</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>month_end</t>
+          <t>months_start</t>
         </is>
       </c>
     </row>

--- a/multi-factor/raw_data/src/trade_days_begin_end_of_month.xlsx
+++ b/multi-factor/raw_data/src/trade_days_begin_end_of_month.xlsx
@@ -1,46 +1,400 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>month_end</t>
+  </si>
+  <si>
+    <t>month_start</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -49,97 +403,333 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,3213 +1012,3210 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B398"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="23.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>month_end</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>months_start</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
         <v>45289</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3">
         <v>45261</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>45260</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>45231</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
         <v>45230</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>45208</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
         <v>45197</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>45170</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
         <v>45169</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>45139</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
         <v>45138</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>45110</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
         <v>45107</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>45078</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>45077</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="3">
         <v>45050</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
         <v>45044</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>45019</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
         <v>45016</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="3">
         <v>44986</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
         <v>44985</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>44958</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
         <v>44957</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="3">
         <v>44929</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
         <v>44925</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="3">
         <v>44896</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
         <v>44895</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="3">
         <v>44866</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
         <v>44865</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="3">
         <v>44844</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>44834</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="3">
         <v>44805</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>44804</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="3">
         <v>44774</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>44771</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="3">
         <v>44743</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>44742</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="3">
         <v>44713</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>44712</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>44686</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>44680</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="3">
         <v>44652</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>44651</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="3">
         <v>44621</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>44620</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="3">
         <v>44599</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>44589</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="3">
         <v>44565</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>44561</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="3">
         <v>44531</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>44530</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="3">
         <v>44501</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>44498</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="3">
         <v>44477</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>44469</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="3">
         <v>44440</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>44439</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="3">
         <v>44410</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>44407</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="3">
         <v>44378</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>44377</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="3">
         <v>44348</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>44347</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="3">
         <v>44322</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>44316</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="3">
         <v>44287</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>44286</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="3">
         <v>44256</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>44253</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="3">
         <v>44228</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>44225</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="3">
         <v>44200</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>44196</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="3">
         <v>44166</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>44165</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="3">
         <v>44137</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>44134</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="3">
         <v>44113</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>44104</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="3">
         <v>44075</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>44074</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="3">
         <v>44046</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>44043</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="3">
         <v>44013</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>44012</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="3">
         <v>43983</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>43980</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="3">
         <v>43957</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>43951</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="3">
         <v>43922</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>43921</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="3">
         <v>43892</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>43889</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="3">
         <v>43864</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>43853</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3">
         <v>43832</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>43830</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="3">
         <v>43801</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>43798</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3">
         <v>43770</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>43769</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="3">
         <v>43746</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>43738</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="3">
         <v>43710</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>43707</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="3">
         <v>43678</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>43677</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="3">
         <v>43647</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>43644</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="3">
         <v>43619</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>43616</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="3">
         <v>43591</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>43585</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="3">
         <v>43556</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>43553</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="3">
         <v>43525</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>43524</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="3">
         <v>43497</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>43496</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="3">
         <v>43467</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>43462</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="3">
         <v>43437</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>43434</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="3">
         <v>43405</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>43404</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="3">
         <v>43381</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>43371</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="3">
         <v>43346</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>43343</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="3">
         <v>43313</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>43312</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="3">
         <v>43283</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>43280</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="3">
         <v>43252</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>43251</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="3">
         <v>43222</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>43217</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="3">
         <v>43192</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>43189</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>43159</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="3">
         <v>43132</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>43131</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="3">
         <v>43102</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>43098</v>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="3">
         <v>43070</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>43069</v>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="3">
         <v>43040</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>43039</v>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="3">
         <v>43017</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>43007</v>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="3">
         <v>42979</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>42978</v>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="3">
         <v>42948</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>42947</v>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="3">
         <v>42919</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>42916</v>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="3">
         <v>42887</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>42886</v>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="3">
         <v>42857</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>42853</v>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="3">
         <v>42830</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>42825</v>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="3">
         <v>42795</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>42794</v>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="3">
         <v>42769</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>42761</v>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="3">
         <v>42738</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>42734</v>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="3">
         <v>42705</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>42704</v>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="3">
         <v>42675</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>42674</v>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="3">
         <v>42653</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>42643</v>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="3">
         <v>42614</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>42613</v>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="3">
         <v>42583</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>42580</v>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="3">
         <v>42552</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>42551</v>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="3">
         <v>42522</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>42521</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="3">
         <v>42493</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>42489</v>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="3">
         <v>42461</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>42460</v>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="3">
         <v>42430</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>42429</v>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="3">
         <v>42401</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>42398</v>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="3">
         <v>42373</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>42369</v>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="3">
         <v>42339</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>42338</v>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="3">
         <v>42310</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>42307</v>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="3">
         <v>42285</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>42277</v>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="3">
         <v>42248</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>42247</v>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="3">
         <v>42219</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>42216</v>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="3">
         <v>42186</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>42185</v>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="3">
         <v>42156</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>42153</v>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="3">
         <v>42128</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>42124</v>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="3">
         <v>42095</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>42094</v>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="3">
         <v>42065</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>42062</v>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="3">
         <v>42037</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>42034</v>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="3">
         <v>42009</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>42004</v>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="3">
         <v>41974</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>41971</v>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="3">
         <v>41946</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>41943</v>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="3">
         <v>41920</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>41912</v>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="3">
         <v>41883</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>41880</v>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="3">
         <v>41852</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>41851</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="3">
         <v>41821</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>41820</v>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="3">
         <v>41793</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>41789</v>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="3">
         <v>41764</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>41759</v>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="3">
         <v>41730</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>41729</v>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="3">
         <v>41701</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>41698</v>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="3">
         <v>41677</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>41669</v>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="3">
         <v>41641</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>41639</v>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="3">
         <v>41610</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>41607</v>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="3">
         <v>41579</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>41578</v>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="3">
         <v>41555</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>41547</v>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="3">
         <v>41519</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>41516</v>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="3">
         <v>41487</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>41486</v>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="3">
         <v>41456</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>41453</v>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="3">
         <v>41428</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>41425</v>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="3">
         <v>41396</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>41390</v>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="3">
         <v>41365</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>41362</v>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="3">
         <v>41334</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>41333</v>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="3">
         <v>41306</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>41305</v>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="3">
         <v>41278</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>41274</v>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="3">
         <v>41246</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>41243</v>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="3">
         <v>41214</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>41213</v>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="3">
         <v>41190</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>41180</v>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="3">
         <v>41155</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>41152</v>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="3">
         <v>41122</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>41121</v>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="3">
         <v>41092</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>41089</v>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="3">
         <v>41061</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>41060</v>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="3">
         <v>41031</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>41026</v>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="3">
         <v>41004</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>40998</v>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="3">
         <v>40969</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>40968</v>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="3">
         <v>40940</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
         <v>40939</v>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="3">
         <v>40912</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
         <v>40907</v>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="3">
         <v>40878</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
         <v>40877</v>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="3">
         <v>40848</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
         <v>40847</v>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="3">
         <v>40826</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
         <v>40816</v>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="3">
         <v>40787</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
         <v>40786</v>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="3">
         <v>40756</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
         <v>40753</v>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="3">
         <v>40725</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
         <v>40724</v>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="3">
         <v>40695</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
         <v>40694</v>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="3">
         <v>40666</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
         <v>40662</v>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="3">
         <v>40634</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
         <v>40633</v>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="3">
         <v>40603</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
         <v>40602</v>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="3">
         <v>40575</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
         <v>40574</v>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="3">
         <v>40547</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
         <v>40543</v>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="3">
         <v>40513</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
         <v>40512</v>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="3">
         <v>40483</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
         <v>40480</v>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="3">
         <v>40459</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
         <v>40451</v>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="3">
         <v>40422</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
         <v>40421</v>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="3">
         <v>40392</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
         <v>40389</v>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="3">
         <v>40360</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
         <v>40359</v>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="3">
         <v>40330</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
         <v>40329</v>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="3">
         <v>40302</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
         <v>40298</v>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="3">
         <v>40269</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
         <v>40268</v>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="3">
         <v>40238</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
         <v>40235</v>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="3">
         <v>40210</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
         <v>40207</v>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="3">
         <v>40182</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
         <v>40178</v>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="3">
         <v>40148</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
         <v>40147</v>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="3">
         <v>40119</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
         <v>40116</v>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="3">
         <v>40095</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
         <v>40086</v>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="3">
         <v>40057</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
         <v>40056</v>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="3">
         <v>40028</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
         <v>40025</v>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="3">
         <v>39995</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
         <v>39994</v>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="3">
         <v>39965</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
         <v>39960</v>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="3">
         <v>39937</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
         <v>39933</v>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="3">
         <v>39904</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
         <v>39903</v>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="3">
         <v>39874</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
         <v>39871</v>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="3">
         <v>39846</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
         <v>39836</v>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="3">
         <v>39818</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
         <v>39813</v>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="3">
         <v>39783</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
         <v>39780</v>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="3">
         <v>39755</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
         <v>39752</v>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="3">
         <v>39727</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
         <v>39717</v>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="3">
         <v>39692</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
         <v>39689</v>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="3">
         <v>39661</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
         <v>39660</v>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="3">
         <v>39630</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
         <v>39629</v>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="3">
         <v>39601</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
         <v>39598</v>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="3">
         <v>39573</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
         <v>39568</v>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="3">
         <v>39539</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
         <v>39538</v>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="3">
         <v>39510</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
         <v>39507</v>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="3">
         <v>39479</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
         <v>39478</v>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="3">
         <v>39449</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
         <v>39444</v>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="3">
         <v>39419</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
         <v>39416</v>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="3">
         <v>39387</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
         <v>39386</v>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="3">
         <v>39363</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
         <v>39353</v>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="3">
         <v>39328</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
         <v>39325</v>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="3">
         <v>39295</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
         <v>39294</v>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="3">
         <v>39265</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
         <v>39262</v>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="3">
         <v>39234</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
         <v>39233</v>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="3">
         <v>39210</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
         <v>39202</v>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="3">
         <v>39174</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
         <v>39171</v>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="3">
         <v>39142</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
         <v>39141</v>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="3">
         <v>39114</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
         <v>39113</v>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="3">
         <v>39086</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
         <v>39080</v>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="3">
         <v>39052</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
         <v>39051</v>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="3">
         <v>39022</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
         <v>39021</v>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="3">
         <v>38999</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
         <v>38989</v>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="3">
         <v>38961</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
         <v>38960</v>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="3">
         <v>38930</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
         <v>38929</v>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="3">
         <v>38901</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
         <v>38898</v>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="3">
         <v>38869</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
         <v>38868</v>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="3">
         <v>38845</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
         <v>38835</v>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="3">
         <v>38810</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
         <v>38807</v>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="3">
         <v>38777</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
         <v>38776</v>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="3">
         <v>38754</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
         <v>38742</v>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="3">
         <v>38721</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
         <v>38716</v>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="3">
         <v>38687</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
         <v>38686</v>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="3">
         <v>38657</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
         <v>38656</v>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="3">
         <v>38635</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
         <v>38625</v>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="3">
         <v>38596</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
         <v>38595</v>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="3">
         <v>38565</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
         <v>38562</v>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="3">
         <v>38534</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
         <v>38533</v>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="3">
         <v>38504</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
         <v>38503</v>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="3">
         <v>38481</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
         <v>38471</v>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="3">
         <v>38443</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
         <v>38442</v>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="3">
         <v>38412</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
         <v>38411</v>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="3">
         <v>38384</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
         <v>38383</v>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="3">
         <v>38356</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
         <v>38352</v>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="3">
         <v>38322</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
         <v>38321</v>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="3">
         <v>38292</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
         <v>38289</v>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="3">
         <v>38268</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
         <v>38260</v>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="3">
         <v>38231</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
         <v>38230</v>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="3">
         <v>38201</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
         <v>38198</v>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="3">
         <v>38169</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
         <v>38168</v>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="3">
         <v>38139</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
         <v>38138</v>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="3">
         <v>38117</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
         <v>38107</v>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="3">
         <v>38078</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
         <v>38077</v>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="3">
         <v>38047</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
         <v>38044</v>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="3">
         <v>38019</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
         <v>38016</v>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="3">
         <v>37988</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
         <v>37986</v>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="3">
         <v>37956</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
         <v>37953</v>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="3">
         <v>37928</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
         <v>37925</v>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="3">
         <v>37902</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
         <v>37894</v>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="3">
         <v>37865</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
         <v>37862</v>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="3">
         <v>37834</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
         <v>37833</v>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="3">
         <v>37803</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
         <v>37802</v>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="3">
         <v>37774</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
         <v>37771</v>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="3">
         <v>37753</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
         <v>37741</v>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="3">
         <v>37712</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
         <v>37711</v>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="3">
         <v>37683</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
         <v>37680</v>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="3">
         <v>37662</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
         <v>37650</v>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="3">
         <v>37623</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
         <v>37621</v>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="3">
         <v>37592</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
         <v>37589</v>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="3">
         <v>37561</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
         <v>37560</v>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="3">
         <v>37537</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
         <v>37526</v>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="3">
         <v>37501</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
         <v>37498</v>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="3">
         <v>37469</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
         <v>37468</v>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="3">
         <v>37438</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
         <v>37435</v>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="3">
         <v>37410</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
         <v>37407</v>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="3">
         <v>37384</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
         <v>37376</v>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="3">
         <v>37347</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
         <v>37344</v>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="3">
         <v>37316</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
         <v>37315</v>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="3">
         <v>37288</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
         <v>37287</v>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="3">
         <v>37260</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
         <v>37256</v>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="3">
         <v>37228</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
         <v>37225</v>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="3">
         <v>37196</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
         <v>37195</v>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="3">
         <v>37172</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
         <v>37162</v>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="3">
         <v>37137</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
         <v>37134</v>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="3">
         <v>37104</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
         <v>37103</v>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="3">
         <v>37074</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
         <v>37071</v>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="3">
         <v>37043</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
         <v>37042</v>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="3">
         <v>37019</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
         <v>37011</v>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="3">
         <v>36983</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
         <v>36980</v>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="3">
         <v>36951</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
         <v>36950</v>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="3">
         <v>36927</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
         <v>36910</v>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="3">
         <v>36893</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
         <v>36889</v>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="3">
         <v>36861</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
         <v>36860</v>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="3">
         <v>36831</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
         <v>36830</v>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="3">
         <v>36808</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
         <v>36798</v>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="3">
         <v>36770</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
         <v>36769</v>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="3">
         <v>36739</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
         <v>36738</v>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="3">
         <v>36710</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
         <v>36707</v>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="3">
         <v>36678</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
         <v>36677</v>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="3">
         <v>36654</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
         <v>36644</v>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="3">
         <v>36619</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
         <v>36616</v>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="3">
         <v>36586</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
         <v>36585</v>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="3">
         <v>36570</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
         <v>36553</v>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="3">
         <v>36529</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
         <v>36524</v>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="3">
         <v>36495</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
         <v>36494</v>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="3">
         <v>36465</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
         <v>36462</v>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="3">
         <v>36441</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
         <v>36433</v>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="3">
         <v>36404</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
         <v>36403</v>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="3">
         <v>36374</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
         <v>36371</v>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="3">
         <v>36342</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
         <v>36341</v>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="3">
         <v>36312</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
         <v>36311</v>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="3">
         <v>36284</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
         <v>36280</v>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="3">
         <v>36251</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
         <v>36250</v>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="3">
         <v>36220</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
         <v>36200</v>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="3">
         <v>36192</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
         <v>36189</v>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="3">
         <v>36164</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
         <v>36160</v>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="3">
         <v>36130</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
         <v>36129</v>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="3">
         <v>36101</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
         <v>36098</v>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="3">
         <v>36073</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
         <v>36068</v>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="3">
         <v>36039</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
         <v>36038</v>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="3">
         <v>36010</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
         <v>36007</v>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="3">
         <v>35977</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
         <v>35976</v>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="3">
         <v>35947</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
         <v>35944</v>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="3">
         <v>35919</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
         <v>35915</v>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="3">
         <v>35886</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
         <v>35885</v>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="3">
         <v>35856</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
         <v>35853</v>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="3">
         <v>35835</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
         <v>35818</v>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
         <v>35795</v>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="3">
         <v>35765</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
         <v>35762</v>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="3">
         <v>35737</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
         <v>35734</v>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="3">
         <v>35709</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
         <v>35703</v>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="3">
         <v>35674</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
         <v>35671</v>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="3">
         <v>35643</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
         <v>35642</v>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="3">
         <v>35613</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
         <v>35608</v>
       </c>
-      <c r="B320" s="3" t="n">
+      <c r="B320" s="3">
         <v>35583</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
         <v>35580</v>
       </c>
-      <c r="B321" s="3" t="n">
+      <c r="B321" s="3">
         <v>35555</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
         <v>35550</v>
       </c>
-      <c r="B322" s="3" t="n">
+      <c r="B322" s="3">
         <v>35521</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
         <v>35520</v>
       </c>
-      <c r="B323" s="3" t="n">
+      <c r="B323" s="3">
         <v>35492</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
         <v>35489</v>
       </c>
-      <c r="B324" s="3" t="n">
+      <c r="B324" s="3">
         <v>35478</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
         <v>35461</v>
       </c>
-      <c r="B325" s="3" t="n">
+      <c r="B325" s="3">
         <v>35432</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
         <v>35430</v>
       </c>
-      <c r="B326" s="3" t="n">
+      <c r="B326" s="3">
         <v>35401</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
         <v>35398</v>
       </c>
-      <c r="B327" s="3" t="n">
+      <c r="B327" s="3">
         <v>35370</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
         <v>35369</v>
       </c>
-      <c r="B328" s="3" t="n">
+      <c r="B328" s="3">
         <v>35341</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
         <v>35335</v>
       </c>
-      <c r="B329" s="3" t="n">
+      <c r="B329" s="3">
         <v>35310</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
         <v>35307</v>
       </c>
-      <c r="B330" s="3" t="n">
+      <c r="B330" s="3">
         <v>35278</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
         <v>35277</v>
       </c>
-      <c r="B331" s="3" t="n">
+      <c r="B331" s="3">
         <v>35247</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
         <v>35244</v>
       </c>
-      <c r="B332" s="3" t="n">
+      <c r="B332" s="3">
         <v>35219</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
         <v>35216</v>
       </c>
-      <c r="B333" s="3" t="n">
+      <c r="B333" s="3">
         <v>35187</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
         <v>35185</v>
       </c>
-      <c r="B334" s="3" t="n">
+      <c r="B334" s="3">
         <v>35156</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
         <v>35153</v>
       </c>
-      <c r="B335" s="3" t="n">
+      <c r="B335" s="3">
         <v>35128</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
         <v>35111</v>
       </c>
-      <c r="B336" s="3" t="n">
+      <c r="B336" s="3">
         <v>35096</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
         <v>35095</v>
       </c>
-      <c r="B337" s="3" t="n">
+      <c r="B337" s="3">
         <v>35066</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
         <v>35062</v>
       </c>
-      <c r="B338" s="3" t="n">
+      <c r="B338" s="3">
         <v>35034</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
         <v>35033</v>
       </c>
-      <c r="B339" s="3" t="n">
+      <c r="B339" s="3">
         <v>35004</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
         <v>35003</v>
       </c>
-      <c r="B340" s="3" t="n">
+      <c r="B340" s="3">
         <v>34976</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
         <v>34971</v>
       </c>
-      <c r="B341" s="3" t="n">
+      <c r="B341" s="3">
         <v>34943</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
         <v>34942</v>
       </c>
-      <c r="B342" s="3" t="n">
+      <c r="B342" s="3">
         <v>34912</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
         <v>34911</v>
       </c>
-      <c r="B343" s="3" t="n">
+      <c r="B343" s="3">
         <v>34883</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
         <v>34880</v>
       </c>
-      <c r="B344" s="3" t="n">
+      <c r="B344" s="3">
         <v>34851</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
         <v>34850</v>
       </c>
-      <c r="B345" s="3" t="n">
+      <c r="B345" s="3">
         <v>34821</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
         <v>34817</v>
       </c>
-      <c r="B346" s="3" t="n">
+      <c r="B346" s="3">
         <v>34792</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
         <v>34789</v>
       </c>
-      <c r="B347" s="3" t="n">
+      <c r="B347" s="3">
         <v>34759</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
         <v>34758</v>
       </c>
-      <c r="B348" s="3" t="n">
+      <c r="B348" s="3">
         <v>34736</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
         <v>34726</v>
       </c>
-      <c r="B349" s="3" t="n">
+      <c r="B349" s="3">
         <v>34702</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
         <v>34698</v>
       </c>
-      <c r="B350" s="3" t="n">
+      <c r="B350" s="3">
         <v>34669</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
         <v>34668</v>
       </c>
-      <c r="B351" s="3" t="n">
+      <c r="B351" s="3">
         <v>34639</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
         <v>34638</v>
       </c>
-      <c r="B352" s="3" t="n">
+      <c r="B352" s="3">
         <v>34612</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
         <v>34607</v>
       </c>
-      <c r="B353" s="3" t="n">
+      <c r="B353" s="3">
         <v>34578</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
         <v>34577</v>
       </c>
-      <c r="B354" s="3" t="n">
+      <c r="B354" s="3">
         <v>34547</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
         <v>34544</v>
       </c>
-      <c r="B355" s="3" t="n">
+      <c r="B355" s="3">
         <v>34516</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
         <v>34515</v>
       </c>
-      <c r="B356" s="3" t="n">
+      <c r="B356" s="3">
         <v>34486</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
         <v>34485</v>
       </c>
-      <c r="B357" s="3" t="n">
+      <c r="B357" s="3">
         <v>34457</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
         <v>34453</v>
       </c>
-      <c r="B358" s="3" t="n">
+      <c r="B358" s="3">
         <v>34425</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
         <v>34424</v>
       </c>
-      <c r="B359" s="3" t="n">
+      <c r="B359" s="3">
         <v>34394</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
         <v>34393</v>
       </c>
-      <c r="B360" s="3" t="n">
+      <c r="B360" s="3">
         <v>34366</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
         <v>34365</v>
       </c>
-      <c r="B361" s="3" t="n">
+      <c r="B361" s="3">
         <v>34337</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
         <v>34334</v>
       </c>
-      <c r="B362" s="3" t="n">
+      <c r="B362" s="3">
         <v>34304</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
         <v>34303</v>
       </c>
-      <c r="B363" s="3" t="n">
+      <c r="B363" s="3">
         <v>34274</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
         <v>34271</v>
       </c>
-      <c r="B364" s="3" t="n">
+      <c r="B364" s="3">
         <v>34246</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
         <v>34242</v>
       </c>
-      <c r="B365" s="3" t="n">
+      <c r="B365" s="3">
         <v>34213</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
         <v>34212</v>
       </c>
-      <c r="B366" s="3" t="n">
+      <c r="B366" s="3">
         <v>34183</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
         <v>34180</v>
       </c>
-      <c r="B367" s="3" t="n">
+      <c r="B367" s="3">
         <v>34151</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
         <v>34150</v>
       </c>
-      <c r="B368" s="3" t="n">
+      <c r="B368" s="3">
         <v>34121</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
         <v>34120</v>
       </c>
-      <c r="B369" s="3" t="n">
+      <c r="B369" s="3">
         <v>34092</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
         <v>34089</v>
       </c>
-      <c r="B370" s="3" t="n">
+      <c r="B370" s="3">
         <v>34060</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
         <v>34059</v>
       </c>
-      <c r="B371" s="3" t="n">
+      <c r="B371" s="3">
         <v>34029</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
         <v>34026</v>
       </c>
-      <c r="B372" s="3" t="n">
+      <c r="B372" s="3">
         <v>34001</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
         <v>33998</v>
       </c>
-      <c r="B373" s="3" t="n">
+      <c r="B373" s="3">
         <v>33973</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
         <v>33969</v>
       </c>
-      <c r="B374" s="3" t="n">
+      <c r="B374" s="3">
         <v>33939</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
         <v>33938</v>
       </c>
-      <c r="B375" s="3" t="n">
+      <c r="B375" s="3">
         <v>33910</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
         <v>33907</v>
       </c>
-      <c r="B376" s="3" t="n">
+      <c r="B376" s="3">
         <v>33882</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
         <v>33877</v>
       </c>
-      <c r="B377" s="3" t="n">
+      <c r="B377" s="3">
         <v>33848</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
         <v>33847</v>
       </c>
-      <c r="B378" s="3" t="n">
+      <c r="B378" s="3">
         <v>33819</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
         <v>33816</v>
       </c>
-      <c r="B379" s="3" t="n">
+      <c r="B379" s="3">
         <v>33786</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
         <v>33785</v>
       </c>
-      <c r="B380" s="3" t="n">
+      <c r="B380" s="3">
         <v>33756</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
         <v>33753</v>
       </c>
-      <c r="B381" s="3" t="n">
+      <c r="B381" s="3">
         <v>33728</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
         <v>33724</v>
       </c>
-      <c r="B382" s="3" t="n">
+      <c r="B382" s="3">
         <v>33695</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
         <v>33694</v>
       </c>
-      <c r="B383" s="3" t="n">
+      <c r="B383" s="3">
         <v>33665</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
         <v>33662</v>
       </c>
-      <c r="B384" s="3" t="n">
+      <c r="B384" s="3">
         <v>33637</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
         <v>33634</v>
       </c>
-      <c r="B385" s="3" t="n">
+      <c r="B385" s="3">
         <v>33605</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
         <v>33603</v>
       </c>
-      <c r="B386" s="3" t="n">
+      <c r="B386" s="3">
         <v>33574</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
         <v>33571</v>
       </c>
-      <c r="B387" s="3" t="n">
+      <c r="B387" s="3">
         <v>33543</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
         <v>33542</v>
       </c>
-      <c r="B388" s="3" t="n">
+      <c r="B388" s="3">
         <v>33514</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
         <v>33511</v>
       </c>
-      <c r="B389" s="3" t="n">
+      <c r="B389" s="3">
         <v>33483</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
         <v>33480</v>
       </c>
-      <c r="B390" s="3" t="n">
+      <c r="B390" s="3">
         <v>33451</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
         <v>33450</v>
       </c>
-      <c r="B391" s="3" t="n">
+      <c r="B391" s="3">
         <v>33420</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
         <v>33417</v>
       </c>
-      <c r="B392" s="3" t="n">
+      <c r="B392" s="3">
         <v>33392</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
         <v>33389</v>
       </c>
-      <c r="B393" s="3" t="n">
+      <c r="B393" s="3">
         <v>33360</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
         <v>33358</v>
       </c>
-      <c r="B394" s="3" t="n">
+      <c r="B394" s="3">
         <v>33329</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
         <v>33326</v>
       </c>
-      <c r="B395" s="3" t="n">
+      <c r="B395" s="3">
         <v>33298</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
         <v>33297</v>
       </c>
-      <c r="B396" s="3" t="n">
+      <c r="B396" s="3">
         <v>33270</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
         <v>33269</v>
       </c>
-      <c r="B397" s="3" t="n">
+      <c r="B397" s="3">
         <v>33240</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
         <v>33238</v>
       </c>
-      <c r="B398" s="3" t="n">
+      <c r="B398" s="3">
         <v>33226</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>